--- a/Excels/Vacancies Results.xlsx
+++ b/Excels/Vacancies Results.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/naytrog1/practica1/Vacancies/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/naytrog1/practica1/Vacancies/Excels/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{C02FB363-73E4-3F47-B48B-EE0AA9377FC7}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{1F7FA4F5-6A7A-994A-AFAE-3C9843310278}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25520" windowHeight="14220" xr2:uid="{782C9D7D-4B80-8D40-84FB-D3591E3DFD67}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25520" windowHeight="14220" activeTab="1" xr2:uid="{782C9D7D-4B80-8D40-84FB-D3591E3DFD67}"/>
   </bookViews>
   <sheets>
     <sheet name="Vacancies Results" sheetId="1" r:id="rId1"/>
+    <sheet name="Vacancies Results 2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="22">
   <si>
     <t>Au</t>
   </si>
@@ -88,6 +89,9 @@
   </si>
   <si>
     <t>LI</t>
+  </si>
+  <si>
+    <t>Number_of_Outputs</t>
   </si>
 </sst>
 </file>
@@ -460,8 +464,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAD06EEA-6776-0E47-A358-CB912691EE50}">
   <dimension ref="A1:T8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -924,11 +928,255 @@
         <f t="shared" si="6"/>
         <v>0.16</v>
       </c>
+      <c r="M8" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="N8" s="2">
+        <f>K8-50</f>
+        <v>50</v>
+      </c>
+      <c r="O8" s="2"/>
+      <c r="P8" s="2"/>
     </row>
   </sheetData>
   <sortState ref="A2:P6">
     <sortCondition ref="M1"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46788571-A75E-8A47-A0AE-905E3FD56273}">
+  <dimension ref="A1:Q7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="O3" sqref="O3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="11" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.83203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="19.83203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="19.83203125" customWidth="1"/>
+    <col min="16" max="16" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="16" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="2">
+        <v>3.51</v>
+      </c>
+      <c r="D2" s="2">
+        <f>IF(B2="FCC",4,IF(B2="BCC",2,IF(B2="SC",2)))</f>
+        <v>2</v>
+      </c>
+      <c r="E2" s="2">
+        <v>5</v>
+      </c>
+      <c r="F2" s="2">
+        <v>5</v>
+      </c>
+      <c r="G2" s="2">
+        <v>2</v>
+      </c>
+      <c r="H2" s="2">
+        <f>C2*E2</f>
+        <v>17.549999999999997</v>
+      </c>
+      <c r="I2" s="2">
+        <f>C2*F2</f>
+        <v>17.549999999999997</v>
+      </c>
+      <c r="J2" s="2">
+        <f>C2*G2</f>
+        <v>7.02</v>
+      </c>
+      <c r="K2" s="2">
+        <f>D2*E2*F2*G2</f>
+        <v>100</v>
+      </c>
+      <c r="L2" s="2">
+        <f>IF(B2="FCC",0.76,IF(B2="BCC",0.16,IF(B2="SC",0.38)))</f>
+        <v>0.16</v>
+      </c>
+      <c r="M2" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="N2" s="2">
+        <f>K2-50</f>
+        <v>50</v>
+      </c>
+      <c r="O2" s="2">
+        <v>1000</v>
+      </c>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2"/>
+      <c r="Q3" s="3"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="3"/>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="2"/>
+      <c r="Q5" s="3"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="3"/>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Excels/Vacancies Results.xlsx
+++ b/Excels/Vacancies Results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/naytrog1/practica1/Vacancies/Excels/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{1F7FA4F5-6A7A-994A-AFAE-3C9843310278}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{AE948343-CE73-FC42-A134-4698DD6573B7}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25520" windowHeight="14220" activeTab="1" xr2:uid="{782C9D7D-4B80-8D40-84FB-D3591E3DFD67}"/>
   </bookViews>

--- a/Excels/Vacancies Results.xlsx
+++ b/Excels/Vacancies Results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/naytrog1/practica1/Vacancies/Excels/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{AE948343-CE73-FC42-A134-4698DD6573B7}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{A0F1DD03-4BBC-6243-BCA9-738D4C9D8BAC}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25520" windowHeight="14220" activeTab="1" xr2:uid="{782C9D7D-4B80-8D40-84FB-D3591E3DFD67}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25520" windowHeight="14220" xr2:uid="{782C9D7D-4B80-8D40-84FB-D3591E3DFD67}"/>
   </bookViews>
   <sheets>
     <sheet name="Vacancies Results" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="22">
   <si>
     <t>Au</t>
   </si>
@@ -462,10 +462,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAD06EEA-6776-0E47-A358-CB912691EE50}">
-  <dimension ref="A1:T8"/>
+  <dimension ref="A1:U9"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="O10" sqref="O10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -482,11 +482,12 @@
     <col min="12" max="12" width="16.83203125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="19.83203125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="20" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="16.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
@@ -530,14 +531,17 @@
         <v>17</v>
       </c>
       <c r="O1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="P1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="T1" s="1"/>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U1" s="1"/>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -561,15 +565,15 @@
         <v>20</v>
       </c>
       <c r="H2" s="2">
-        <f t="shared" ref="H2:H8" si="0">C2*E2</f>
+        <f t="shared" ref="H2:H9" si="0">C2*E2</f>
         <v>40.799999999999997</v>
       </c>
       <c r="I2" s="2">
-        <f t="shared" ref="I2:I8" si="1">C2*F2</f>
+        <f t="shared" ref="I2:I9" si="1">C2*F2</f>
         <v>40.799999999999997</v>
       </c>
       <c r="J2" s="2">
-        <f t="shared" ref="J2:J8" si="2">C2*G2</f>
+        <f t="shared" ref="J2:J9" si="2">C2*G2</f>
         <v>81.599999999999994</v>
       </c>
       <c r="K2" s="2">
@@ -588,14 +592,17 @@
         <v>400</v>
       </c>
       <c r="O2" s="2">
+        <v>1</v>
+      </c>
+      <c r="P2" s="2">
         <v>394</v>
       </c>
-      <c r="P2" s="3">
-        <f t="shared" ref="P2:P7" si="3">(O2/N2)</f>
+      <c r="Q2" s="3">
+        <f t="shared" ref="Q2:Q7" si="3">(P2/N2)</f>
         <v>0.98499999999999999</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
@@ -631,11 +638,11 @@
         <v>81.599999999999994</v>
       </c>
       <c r="K3" s="2">
-        <f t="shared" ref="K3:K8" si="5">D3*E3*F3*G3</f>
+        <f t="shared" ref="K3:K9" si="5">D3*E3*F3*G3</f>
         <v>8000</v>
       </c>
       <c r="L3" s="2">
-        <f t="shared" ref="L3:L8" si="6">IF(B3="FCC",0.76,IF(B3="BCC",0.16,IF(B3="SC",0.38)))</f>
+        <f t="shared" ref="L3:L9" si="6">IF(B3="FCC",0.76,IF(B3="BCC",0.16,IF(B3="SC",0.38)))</f>
         <v>0.76</v>
       </c>
       <c r="M3" s="4">
@@ -646,14 +653,17 @@
         <v>1040</v>
       </c>
       <c r="O3" s="2">
+        <v>1</v>
+      </c>
+      <c r="P3" s="2">
         <v>985</v>
       </c>
-      <c r="P3" s="3">
+      <c r="Q3" s="3">
         <f t="shared" si="3"/>
         <v>0.94711538461538458</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
@@ -704,14 +714,17 @@
         <v>2000</v>
       </c>
       <c r="O4" s="2">
+        <v>1</v>
+      </c>
+      <c r="P4" s="2">
         <v>1796</v>
       </c>
-      <c r="P4" s="3">
+      <c r="Q4" s="3">
         <f t="shared" si="3"/>
         <v>0.89800000000000002</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>0</v>
       </c>
@@ -762,14 +775,17 @@
         <v>4000</v>
       </c>
       <c r="O5" s="2">
+        <v>1</v>
+      </c>
+      <c r="P5" s="2">
         <v>3474</v>
       </c>
-      <c r="P5" s="3">
+      <c r="Q5" s="3">
         <f t="shared" si="3"/>
         <v>0.86850000000000005</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>0</v>
       </c>
@@ -820,14 +836,17 @@
         <v>5840</v>
       </c>
       <c r="O6" s="2">
+        <v>1</v>
+      </c>
+      <c r="P6" s="2">
         <v>5329</v>
       </c>
-      <c r="P6" s="3">
+      <c r="Q6" s="3">
         <f t="shared" si="3"/>
         <v>0.91249999999999998</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>4</v>
       </c>
@@ -878,14 +897,17 @@
         <v>1000</v>
       </c>
       <c r="O7" s="2">
+        <v>1</v>
+      </c>
+      <c r="P7" s="2">
         <v>757</v>
       </c>
-      <c r="P7" s="3">
+      <c r="Q7" s="3">
         <f t="shared" si="3"/>
         <v>0.75700000000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>20</v>
       </c>
@@ -935,11 +957,64 @@
         <f>K8-50</f>
         <v>50</v>
       </c>
-      <c r="O8" s="2"/>
+      <c r="O8" s="2">
+        <v>1000</v>
+      </c>
       <c r="P8" s="2"/>
+      <c r="Q8" s="2"/>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="2">
+        <v>4.08</v>
+      </c>
+      <c r="D9" s="2">
+        <f>IF(B9="FCC",4,IF(B9="BCC",2,IF(B9="SC",2)))</f>
+        <v>4</v>
+      </c>
+      <c r="E9" s="2">
+        <v>10</v>
+      </c>
+      <c r="F9" s="2">
+        <v>5</v>
+      </c>
+      <c r="G9" s="2">
+        <v>5</v>
+      </c>
+      <c r="H9" s="2">
+        <f t="shared" si="0"/>
+        <v>40.799999999999997</v>
+      </c>
+      <c r="I9" s="2">
+        <f t="shared" si="1"/>
+        <v>20.399999999999999</v>
+      </c>
+      <c r="J9" s="2">
+        <f t="shared" si="2"/>
+        <v>20.399999999999999</v>
+      </c>
+      <c r="K9" s="2">
+        <f t="shared" si="5"/>
+        <v>1000</v>
+      </c>
+      <c r="L9" s="2">
+        <f t="shared" si="6"/>
+        <v>0.76</v>
+      </c>
+      <c r="M9" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="O9" s="2">
+        <v>1000</v>
+      </c>
     </row>
   </sheetData>
-  <sortState ref="A2:P6">
+  <sortState ref="A2:Q6">
     <sortCondition ref="M1"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -951,8 +1026,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46788571-A75E-8A47-A0AE-905E3FD56273}">
   <dimension ref="A1:Q7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="O3" sqref="O3"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/Excels/Vacancies Results.xlsx
+++ b/Excels/Vacancies Results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/naytrog1/practica1/Vacancies/Excels/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{A0F1DD03-4BBC-6243-BCA9-738D4C9D8BAC}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{9E50538B-A9DC-0948-A75F-89F296EFE01B}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25520" windowHeight="14220" xr2:uid="{782C9D7D-4B80-8D40-84FB-D3591E3DFD67}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="23">
   <si>
     <t>Au</t>
   </si>
@@ -92,6 +92,9 @@
   </si>
   <si>
     <t>Number_of_Outputs</t>
+  </si>
+  <si>
+    <t>Na</t>
   </si>
 </sst>
 </file>
@@ -462,10 +465,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAD06EEA-6776-0E47-A358-CB912691EE50}">
-  <dimension ref="A1:U9"/>
+  <dimension ref="A1:U10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="O10" sqref="O10"/>
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -565,15 +568,15 @@
         <v>20</v>
       </c>
       <c r="H2" s="2">
-        <f t="shared" ref="H2:H9" si="0">C2*E2</f>
+        <f t="shared" ref="H2:H10" si="0">C2*E2</f>
         <v>40.799999999999997</v>
       </c>
       <c r="I2" s="2">
-        <f t="shared" ref="I2:I9" si="1">C2*F2</f>
+        <f t="shared" ref="I2:I10" si="1">C2*F2</f>
         <v>40.799999999999997</v>
       </c>
       <c r="J2" s="2">
-        <f t="shared" ref="J2:J9" si="2">C2*G2</f>
+        <f t="shared" ref="J2:J10" si="2">C2*G2</f>
         <v>81.599999999999994</v>
       </c>
       <c r="K2" s="2">
@@ -638,11 +641,11 @@
         <v>81.599999999999994</v>
       </c>
       <c r="K3" s="2">
-        <f t="shared" ref="K3:K9" si="5">D3*E3*F3*G3</f>
+        <f t="shared" ref="K3:K10" si="5">D3*E3*F3*G3</f>
         <v>8000</v>
       </c>
       <c r="L3" s="2">
-        <f t="shared" ref="L3:L9" si="6">IF(B3="FCC",0.76,IF(B3="BCC",0.16,IF(B3="SC",0.38)))</f>
+        <f t="shared" ref="L3:L10" si="6">IF(B3="FCC",0.76,IF(B3="BCC",0.16,IF(B3="SC",0.38)))</f>
         <v>0.76</v>
       </c>
       <c r="M3" s="4">
@@ -1009,7 +1012,67 @@
       <c r="M9" s="3">
         <v>0.25</v>
       </c>
+      <c r="N9" s="2">
+        <f>K9-750</f>
+        <v>250</v>
+      </c>
       <c r="O9" s="2">
+        <v>1000</v>
+      </c>
+      <c r="P9" s="2"/>
+      <c r="Q9" s="2"/>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="2">
+        <v>4.29</v>
+      </c>
+      <c r="D10" s="2">
+        <f>IF(B10="FCC",4,IF(B10="BCC",2,IF(B10="SC",2)))</f>
+        <v>2</v>
+      </c>
+      <c r="E10" s="2">
+        <v>10</v>
+      </c>
+      <c r="F10" s="2">
+        <v>10</v>
+      </c>
+      <c r="G10" s="2">
+        <v>5</v>
+      </c>
+      <c r="H10" s="2">
+        <f t="shared" si="0"/>
+        <v>42.9</v>
+      </c>
+      <c r="I10" s="2">
+        <f t="shared" si="1"/>
+        <v>42.9</v>
+      </c>
+      <c r="J10" s="2">
+        <f t="shared" si="2"/>
+        <v>21.45</v>
+      </c>
+      <c r="K10" s="2">
+        <f t="shared" si="5"/>
+        <v>1000</v>
+      </c>
+      <c r="L10" s="2">
+        <f t="shared" si="6"/>
+        <v>0.16</v>
+      </c>
+      <c r="M10" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="N10" s="2">
+        <f>K10-750</f>
+        <v>250</v>
+      </c>
+      <c r="O10" s="2">
         <v>1000</v>
       </c>
     </row>

--- a/Excels/Vacancies Results.xlsx
+++ b/Excels/Vacancies Results.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/naytrog1/practica1/Vacancies/Excels/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{9E50538B-A9DC-0948-A75F-89F296EFE01B}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{682A216C-B6AD-E845-9803-87DEB7898687}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25520" windowHeight="14220" xr2:uid="{782C9D7D-4B80-8D40-84FB-D3591E3DFD67}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25520" windowHeight="14160" xr2:uid="{782C9D7D-4B80-8D40-84FB-D3591E3DFD67}"/>
   </bookViews>
   <sheets>
     <sheet name="Vacancies Results" sheetId="1" r:id="rId1"/>
@@ -468,7 +468,7 @@
   <dimension ref="A1:U10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+      <selection activeCell="A9" sqref="A9:O9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -968,46 +968,46 @@
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C9" s="2">
-        <v>4.08</v>
+        <v>4.29</v>
       </c>
       <c r="D9" s="2">
         <f>IF(B9="FCC",4,IF(B9="BCC",2,IF(B9="SC",2)))</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E9" s="2">
         <v>10</v>
       </c>
       <c r="F9" s="2">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G9" s="2">
         <v>5</v>
       </c>
       <c r="H9" s="2">
-        <f t="shared" si="0"/>
-        <v>40.799999999999997</v>
+        <f>C9*E9</f>
+        <v>42.9</v>
       </c>
       <c r="I9" s="2">
-        <f t="shared" si="1"/>
-        <v>20.399999999999999</v>
+        <f>C9*F9</f>
+        <v>42.9</v>
       </c>
       <c r="J9" s="2">
-        <f t="shared" si="2"/>
-        <v>20.399999999999999</v>
+        <f>C9*G9</f>
+        <v>21.45</v>
       </c>
       <c r="K9" s="2">
-        <f t="shared" si="5"/>
+        <f>D9*E9*F9*G9</f>
         <v>1000</v>
       </c>
       <c r="L9" s="2">
-        <f t="shared" si="6"/>
-        <v>0.76</v>
+        <f>IF(B9="FCC",0.76,IF(B9="BCC",0.16,IF(B9="SC",0.38)))</f>
+        <v>0.16</v>
       </c>
       <c r="M9" s="3">
         <v>0.25</v>
@@ -1024,46 +1024,46 @@
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C10" s="2">
-        <v>4.29</v>
+        <v>4.08</v>
       </c>
       <c r="D10" s="2">
         <f>IF(B10="FCC",4,IF(B10="BCC",2,IF(B10="SC",2)))</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E10" s="2">
         <v>10</v>
       </c>
       <c r="F10" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G10" s="2">
         <v>5</v>
       </c>
       <c r="H10" s="2">
-        <f t="shared" si="0"/>
-        <v>42.9</v>
+        <f>C10*E10</f>
+        <v>40.799999999999997</v>
       </c>
       <c r="I10" s="2">
-        <f t="shared" si="1"/>
-        <v>42.9</v>
+        <f>C10*F10</f>
+        <v>20.399999999999999</v>
       </c>
       <c r="J10" s="2">
-        <f t="shared" si="2"/>
-        <v>21.45</v>
+        <f>C10*G10</f>
+        <v>20.399999999999999</v>
       </c>
       <c r="K10" s="2">
-        <f t="shared" si="5"/>
+        <f>D10*E10*F10*G10</f>
         <v>1000</v>
       </c>
       <c r="L10" s="2">
-        <f t="shared" si="6"/>
-        <v>0.16</v>
+        <f>IF(B10="FCC",0.76,IF(B10="BCC",0.16,IF(B10="SC",0.38)))</f>
+        <v>0.76</v>
       </c>
       <c r="M10" s="3">
         <v>0.25</v>
